--- a/biology/Médecine/Hypersplénisme/Hypersplénisme.xlsx
+++ b/biology/Médecine/Hypersplénisme/Hypersplénisme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hyperspl%C3%A9nisme</t>
+          <t>Hypersplénisme</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hypersplénisme est un trouble fonctionnel de la rate caractérisé par l'augmentation pathologique de l'activité de certaines fonctions. Il s'agit généralement d'une séquestration ou destruction accrue d'éléments figurés sanguins (globules blancs, globules rouges, plaquettes) ce qui peut causer une cytopénie.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hyperspl%C3%A9nisme</t>
+          <t>Hypersplénisme</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hypersplénisme produit une accumulation d'éléments figurés sanguins dans la rate ou leur destruction accrue sous l'action d'anticorps.
-Il ne faut pas confondre hypersplénisme et splénomégalie (augmentation du volume de la rate). Hypersplénisme et splénomégalie peuvent survenir indépendamment[1], mais généralement l'hypersplénisme est associé à une splénomégalie (alors que la réciproque n'est pas vraie). En fait, ces deux états peuvent résulter d'une même pathologie sous-jacente, comme par ex. la cirrhose du foie.
-Les anomalies de l’hémogramme liées à l’hypersplénisme peuvent être dues soit à des cytopénies de séquestration soit à une hémodilution (fausse anémie)[2]. Généralement, la neutropénie et la thrombopénie sont liées à une séquestration et l'anémie est liée à l’hémodilution[3].
+Il ne faut pas confondre hypersplénisme et splénomégalie (augmentation du volume de la rate). Hypersplénisme et splénomégalie peuvent survenir indépendamment, mais généralement l'hypersplénisme est associé à une splénomégalie (alors que la réciproque n'est pas vraie). En fait, ces deux états peuvent résulter d'une même pathologie sous-jacente, comme par ex. la cirrhose du foie.
+Les anomalies de l’hémogramme liées à l’hypersplénisme peuvent être dues soit à des cytopénies de séquestration soit à une hémodilution (fausse anémie). Généralement, la neutropénie et la thrombopénie sont liées à une séquestration et l'anémie est liée à l’hémodilution.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hyperspl%C3%A9nisme</t>
+          <t>Hypersplénisme</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Physiopathologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hyperfonctionnement de la rate se manifeste généralement par :
 une splénomégalie ;
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Hyperspl%C3%A9nisme</t>
+          <t>Hypersplénisme</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,7 +596,9 @@
           <t>Étiologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hypersplénisme peut résulter des troubles suivants :
 une hypertension portale pouvant être causée par une cirrhose du foie, une compression ou thrombose porte, splénique ou des veines sus-hépatiques (syndrome de Budd-Chiari), une insuffisance cardiaque droite…
